--- a/www/data-entry-template/GLATAR_data_entry_template_v13.xlsx
+++ b/www/data-entry-template/GLATAR_data_entry_template_v13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benhlina/Library/CloudStorage/Dropbox/GitHub/GLATAR-App/www/data-entry-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D48A4-7354-4340-B912-633C7FA86D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8353834-1DE5-9649-A9FE-448FD8FE3025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19460" activeTab="2" xr2:uid="{DE6F8925-643B-304C-8933-23D4A9123DA3}"/>
   </bookViews>
@@ -2802,10 +2802,10 @@
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3075,7 +3075,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y999" xr:uid="{DE8D5097-D7B7-D64B-9AA3-BBCDB593CD44}">
       <formula1>"muscle, liver, stomach, scales, otolith, spines, cleithra, whole body"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:AA999" xr:uid="{618BEA16-FB85-144A-9DB4-305EFF123E53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:Z999" xr:uid="{618BEA16-FB85-144A-9DB4-305EFF123E53}">
       <formula1>"wet, dried"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK999" xr:uid="{66E4A2BE-9678-EC4D-BD77-D6B9C6555CFA}">
